--- a/May_2022.xlsx
+++ b/May_2022.xlsx
@@ -8,19 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="MP_State" sheetId="1" r:id="rId1"/>
-    <sheet name="DNH_State" sheetId="2" r:id="rId2"/>
-    <sheet name="GOA_State" sheetId="3" r:id="rId3"/>
-    <sheet name="GEB_State" sheetId="4" r:id="rId4"/>
-    <sheet name="CSEB_State" sheetId="5" r:id="rId5"/>
-    <sheet name="MSEB_State" sheetId="6" r:id="rId6"/>
-    <sheet name="AMNSIL_WR State" sheetId="7" r:id="rId7"/>
+    <sheet name="GOA_State" sheetId="2" r:id="rId2"/>
+    <sheet name="GEB_State" sheetId="3" r:id="rId3"/>
+    <sheet name="CSEB_State" sheetId="4" r:id="rId4"/>
+    <sheet name="MSEB_State" sheetId="5" r:id="rId5"/>
+    <sheet name="AMNSIL_WR State" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="18">
   <si>
     <t>transactionType</t>
   </si>
@@ -52,6 +51,15 @@
     <t>hydroNet</t>
   </si>
   <si>
+    <t>gdamDrawal</t>
+  </si>
+  <si>
+    <t>gdamInjection</t>
+  </si>
+  <si>
+    <t>gdamNet</t>
+  </si>
+  <si>
     <t>ISGS</t>
   </si>
   <si>
@@ -61,13 +69,7 @@
     <t>STOA</t>
   </si>
   <si>
-    <t>RTM_IEX</t>
-  </si>
-  <si>
     <t>MTOA</t>
-  </si>
-  <si>
-    <t>IEX</t>
   </si>
   <si>
     <t>GDAM_IEX</t>
@@ -428,13 +430,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,13 +467,22 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -500,13 +511,22 @@
       <c r="K2">
         <v>4.629314530499999</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>192.6030849999999</v>
@@ -535,13 +555,22 @@
       <c r="K3">
         <v>2.146562500000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>21.55880499999999</v>
@@ -570,13 +599,22 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -605,13 +643,22 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -640,75 +687,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>-11.727525</v>
+      </c>
+      <c r="N6">
+        <v>-11.727525</v>
       </c>
     </row>
   </sheetData>
@@ -718,13 +704,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,22 +741,31 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>18.21439999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>18.21439999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -782,39 +777,48 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30.40065000000002</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>30.40065000000002</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.681435</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4.681435</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>18.987575</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>18.987575</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -825,13 +829,22 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -843,91 +856,30 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.72</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.72</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>13.104</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
     </row>
@@ -938,13 +890,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,22 +927,31 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>18.21439999999999</v>
+        <v>93.17748970000004</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-7.645787499999998</v>
       </c>
       <c r="E2">
-        <v>18.21439999999999</v>
+        <v>85.53170220000004</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1002,39 +963,48 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.40065000000002</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.40065000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>4.681435</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.681435</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18.987575</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>18.987575</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1045,22 +1015,31 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-1.16815</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.2581499999999995</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1072,21 +1051,30 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.353425</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.353425</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1115,13 +1103,22 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>42.17301749999999</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>42.17301749999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1148,6 +1145,15 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
     </row>
@@ -1158,13 +1164,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,22 +1201,31 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>93.17748970000004</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-7.645787499999998</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>85.53170220000004</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1222,30 +1237,39 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>78.49451147100001</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>78.49451147100001</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>69.21061999999999</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>69.21061999999999</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1257,30 +1281,39 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>45.16758000000001</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>45.16758000000001</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-1.16815</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.2581499999999995</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1292,152 +1325,21 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.353425</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.353425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
     </row>
@@ -1448,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,83 +1387,110 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>151.8763499999999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>151.8763499999999</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>96.86055</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>96.86055</v>
       </c>
       <c r="I2">
-        <v>78.49451147100001</v>
+        <v>19.93145</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>78.49451147100001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>19.93145</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>69.21061999999999</v>
+        <v>356.5616625</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>69.21061999999999</v>
+        <v>356.5616625</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>66.2181925</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>66.2181925</v>
       </c>
       <c r="I3">
-        <v>1.35408</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.35408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1590,13 +1519,22 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1625,40 +1563,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="L5">
+        <v>65.42986749999999</v>
+      </c>
+      <c r="M5">
+        <v>-9.577599999999999</v>
+      </c>
+      <c r="N5">
+        <v>55.85226749999999</v>
       </c>
     </row>
   </sheetData>
@@ -1668,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,268 +1617,22 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>151.8763499999999</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>151.8763499999999</v>
-      </c>
-      <c r="F2">
-        <v>96.86055</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>96.86055</v>
-      </c>
-      <c r="I2">
-        <v>19.93145</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>19.93145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>356.5616625</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>356.5616625</v>
-      </c>
-      <c r="F3">
-        <v>66.2181925</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>66.2181925</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>2.7406075</v>
@@ -1995,74 +1661,13 @@
       <c r="K2">
         <v>15.0376</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
     </row>
